--- a/data/trans_orig/P35_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Clase-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+          <t>Población según si su médico u otra persona le ha aconsejado que realice algún tipo de ejercicio físico en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>172798</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24917</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>17024</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>35731</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>124547</v>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>11016</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>413</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>297344</v>
+          <t>6660</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17481</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>35932</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>26914</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>48349</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>344</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>332414</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11418</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,8%</t>
+          <t>5816</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>19446</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>69,94%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>483</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>322920</v>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>72,17%</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>8736</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>827</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>655335</v>
+          <t>4756</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14661</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>68,79%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>65,91%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>20154</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>13152</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>29481</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -817,145 +949,225 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>554</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>505212</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>136463</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>116846</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>155713</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>686</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>447467</v>
+          <t>27,01%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30,82%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>172</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>104795</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>1240</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>952679</v>
+          <t>90296</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>120450</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23,42%</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>241258</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>217070</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>266007</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>27,92%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Grupo III</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>204</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>174339</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>332414</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>310348</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>352356</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>220</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>142956</v>
+          <t>65,8%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>61,43%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>69,74%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>483</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>322920</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>424</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>317295</v>
+          <t>306794</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>338398</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>72,17%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>68,56%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>75,63%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>655335</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>627196</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>680676</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>68,79%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>65,83%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>71,45%</t>
         </is>
       </c>
     </row>
@@ -963,216 +1175,342 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>277</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>277874</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>505212</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>61,45%</t>
+          <t>505212</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>57,27%</t>
+          <t>505212</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>369</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>238793</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,55%</t>
+          <t>686</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>447467</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66,63%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>646</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>516666</v>
+          <t>447467</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>447467</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>61,95%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>58,58%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>65,14%</t>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>952679</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>952679</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>952679</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>481</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>452213</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35218</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>25439</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>47989</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>589</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>381749</v>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10,61%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>21395</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>1070</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>833961</v>
+          <t>15137</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29600</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>56613</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>43233</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>69834</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Grupo IV y V</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>164327</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16129</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>9622</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>25089</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>69177</v>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,13%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>14451</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>323</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>233504</v>
+          <t>9105</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21425</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>30581</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>22026</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>41266</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -1180,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>285</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>503937</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>122992</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,41%</t>
+          <t>104703</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,87%</t>
+          <t>142654</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>169</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>97734</v>
+          <t>27,2%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23,15%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31,55%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>166</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,95%</t>
+          <t>107109</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,73%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>454</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>601671</v>
+          <t>93757</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>123192</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28,06%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>72,04%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>88,36%</t>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>230101</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>208541</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>255096</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>27,59%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>25,01%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>30,59%</t>
         </is>
       </c>
     </row>
@@ -1251,216 +1631,342 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>488</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>668264</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>277874</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>255431</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>298265</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>289</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>166911</v>
+          <t>61,45%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56,48%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>65,96%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>238793</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>777</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>835175</v>
+          <t>221490</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>253099</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>62,55%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>58,02%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>66,3%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>516666</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>491526</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>542605</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>61,95%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>58,94%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>65,06%</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Grupo VI</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>371135</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>452213</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>452213</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>452213</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>404</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>252707</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>589</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>381749</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33,68%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>845</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>623842</v>
+          <t>381749</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>381749</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>833961</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>833961</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>833961</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>677</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>663684</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>38487</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>12969</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>60,99%</t>
+          <t>67632</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>67,3%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>823</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>723849</v>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>66,32%</t>
+          <t>11003</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>1500</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>1387533</v>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16966</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>64,66%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>78,33%</t>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>49490</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>16759</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>75375</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -1468,145 +1974,225 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>1118</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>1034819</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9461</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>18022</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1227</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>976556</v>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>2345</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>2011375</v>
+          <t>1717</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8950</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>13670</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>4749</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>24377</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Grupo VII</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>152589</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>116379</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>44139</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>191531</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>597</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>339448</v>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28,66%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>53965</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>46,0%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>782</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>492037</v>
+          <t>44870</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>64402</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>32,33%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>41,3%</t>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>170344</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>73205</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>249123</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>20,4%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>29,83%</t>
         </is>
       </c>
     </row>
@@ -1617,67 +2203,109 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>362</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>322457</v>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>503937</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>67,88%</t>
+          <t>399102</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>62,87%</t>
+          <t>606667</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>692</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>499548</v>
+          <t>75,41%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>59,72%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>90,78%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>59,54%</t>
+          <t>169</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>54,0%</t>
+          <t>97734</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>69,95%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>1054</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>822004</v>
+          <t>86726</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>107508</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>58,55%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>62,56%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>58,7%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>68,61%</t>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>601671</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>494789</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>737225</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>72,04%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>59,24%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>88,27%</t>
         </is>
       </c>
     </row>
@@ -1688,20 +2316,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>547</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>475046</v>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>668264</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>668264</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>668264</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1709,32 +2341,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>1289</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>838996</v>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>289</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>166911</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>1836</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>1314041</v>
+          <t>166911</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>166911</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1747,6 +2387,36 @@
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>835175</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>835175</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>835175</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1755,75 +2425,117 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>Grupo VI</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>42534</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>85254</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>69047</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>109899</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>504</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>315571</v>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10,62%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>51035</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>532</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>358105</v>
+          <t>25663</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>70391</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>136289</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>93860</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>164923</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
         </is>
       </c>
     </row>
@@ -1831,70 +2543,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>197973</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>25974</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>17241</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>73,02%</t>
+          <t>35232</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>653</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>444853</v>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>17542</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>61,57%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>737</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>642826</v>
+          <t>7717</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>27712</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>64,22%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>43515</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>28142</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>58380</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -1902,145 +2656,225 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>240507</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>259908</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>231271</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>289861</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1157</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>760424</v>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>22,35%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>28,01%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>308</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>184130</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>1269</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>1000931</v>
+          <t>95368</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>240958</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>18,86%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>444038</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>292966</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>505380</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>22,08%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>25,13%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>1271</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>1077723</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>663684</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>627599</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>695797</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>2048</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>1244405</v>
+          <t>64,14%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>60,65%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>67,24%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>823</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>723849</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>3319</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>2322128</v>
+          <t>648166</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>843272</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>74,12%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1387533</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1303653</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1590025</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>68,98%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>64,81%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>79,05%</t>
         </is>
       </c>
     </row>
@@ -2048,146 +2882,1824 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>2029</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>2298337</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1118</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1034819</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>68,08%</t>
+          <t>1034819</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>1034819</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>3189</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>2327697</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>65,16%</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>976556</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>71,16%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>5218</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>4626035</v>
+          <t>976556</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>976556</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>66,58%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>64,17%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>2011375</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>2011375</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>2011375</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>3300</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>3376060</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>42829</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>31100</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>60198</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>5237</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>3572102</v>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12,67%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67240</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>8537</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>6948163</v>
+          <t>48932</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>82634</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>110069</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>87525</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>134143</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>14749</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>9194</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>22178</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>24450</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>16642</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>33357</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>39199</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>28597</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>50530</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>95011</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>78304</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>112686</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>23,72%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>247758</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>182487</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>284912</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>29,53%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>21,75%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>33,96%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>342769</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>279984</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>379710</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>26,09%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>28,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>322457</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>300277</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>344041</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>67,88%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>63,21%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>72,42%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>499548</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>454150</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>599305</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>59,54%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>54,13%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>71,43%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>822004</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>776075</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>909245</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>62,56%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>59,06%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>69,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>475046</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>475046</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>475046</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1289</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>838996</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>838996</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>838996</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>1314041</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>1314041</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>1314041</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>21963</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>10683</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>39139</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>9,13%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>16,27%</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>88590</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>71989</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>105024</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>11,65%</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>9,47%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>13,81%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>110553</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>90488</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>136214</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>13,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>15201</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>34546</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>26163</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>47172</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>38644</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>28795</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>52293</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>16473</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>8823</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>30521</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>12,69%</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>192435</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>171835</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>214719</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>25,31%</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>22,6%</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>28,24%</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>208909</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>187188</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>237488</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>23,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>197973</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>177943</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>212719</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>82,32%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>73,99%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>88,45%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>444853</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>419251</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>470765</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>58,5%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>55,13%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>61,91%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>642826</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>611820</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>673992</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>64,22%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>61,13%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>67,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>240507</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>240507</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>240507</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>760424</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>760424</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>760424</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>1269</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>1000931</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>1000931</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>1000931</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>248667</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>197096</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>290911</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>250279</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>201195</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>287395</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>498946</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>426233</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>556420</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>81829</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>62647</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>102392</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>103934</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>82697</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>125659</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>185763</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>155244</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>213991</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>747227</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>569908</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>824130</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>24,41%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>1515</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>890192</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>716637</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>974345</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>24,92%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>20,06%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>27,28%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>2430</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>1637419</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>1418710</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>1760458</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>23,57%</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>2298337</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>2196852</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>2559428</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>68,08%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>65,07%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>75,81%</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>2327697</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>2214655</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>2567805</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>65,16%</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>62,0%</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>71,88%</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>4626035</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>4462727</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>4929297</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>66,58%</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>64,23%</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>70,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>3376060</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>3376060</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>3376060</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>3572102</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>3572102</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>3572102</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>8537</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>6948163</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>6948163</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>6948163</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -2195,17 +4707,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P35_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Clase-trans_orig.xlsx
@@ -3563,7 +3563,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
